--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2724.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2724.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.16470468128097</v>
+        <v>0.9166777729988098</v>
       </c>
       <c r="B1">
-        <v>2.399830843473467</v>
+        <v>1.557201862335205</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>3.071535348892212</v>
       </c>
       <c r="D1">
-        <v>2.364243677863821</v>
+        <v>3.874866724014282</v>
       </c>
       <c r="E1">
-        <v>1.215437747038743</v>
+        <v>0.3883232772350311</v>
       </c>
     </row>
   </sheetData>
